--- a/Income/BMRN_inc.xlsx
+++ b/Income/BMRN_inc.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AN29"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -92,7 +92,7 @@
     <col min="17" max="17" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="18" max="18" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="19" max="19" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="20" max="20" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="20" max="20" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="21" max="21" bestFit="1" customWidth="1" width="14.3"/>
     <col min="22" max="22" bestFit="1" customWidth="1" width="14.3"/>
     <col min="23" max="23" bestFit="1" customWidth="1" width="14.3"/>
@@ -113,6 +113,7 @@
     <col min="38" max="38" bestFit="1" customWidth="1" width="14.3"/>
     <col min="39" max="39" bestFit="1" customWidth="1" width="14.3"/>
     <col min="40" max="40" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="41" max="41" bestFit="1" customWidth="1" width="14.3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -122,120 +123,123 @@
         </is>
       </c>
       <c r="B1" s="2">
+        <v>44286.0</v>
+      </c>
+      <c r="C1" s="2">
         <v>44196.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>44104.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>44012.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43921.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43830.0</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43738.0</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43646.0</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43555.0</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43465.0</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43373.0</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43281.0</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43190.0</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43100.0</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43008.0</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>42916.0</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>42825.0</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>42735.0</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>42643.0</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>42551.0</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>42460.0</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>42369.0</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>42277.0</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>42185.0</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>42094.0</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>42004.0</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <v>41912.0</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <v>41820.0</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="2">
         <v>41729.0</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>41639.0</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <v>41547.0</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>41455.0</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AH1" s="2">
         <v>41364.0</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AI1" s="2">
         <v>41274.0</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AJ1" s="2">
         <v>41182.0</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AK1" s="2">
         <v>41090.0</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AL1" s="2">
         <v>40999.0</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AM1" s="2">
         <v>40908.0</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AN1" s="2">
         <v>40816.0</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AO1" s="2">
         <v>40724.0</v>
       </c>
     </row>
@@ -246,120 +250,123 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
+        <v>1832623000.0</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>1842333000.0</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="D2" s="0" t="n">
         <v>1838979000.0</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>1825985000.0</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F2" s="0" t="n">
         <v>1792542000.0</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="G2" s="0" t="n">
         <v>1697547000.0</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="H2" s="0" t="n">
         <v>1602819100.0</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <v>1533428100.0</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="J2" s="0" t="n">
         <v>1518510100.0</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>1491212100.0</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>1496303000.0</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>1438745000.0</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="N2" s="0" t="n">
         <v>1383348000.0</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O2" s="0" t="n">
         <v>1313646000.0</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="P2" s="0" t="n">
         <v>1255432000.0</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
         <v>1201180000.0</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R2" s="0" t="n">
         <v>1183863000.0</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="S2" s="0" t="n">
         <v>1116854000.0</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="T2" s="0" t="n">
         <v>1044699000.0</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="U2" s="0" t="n">
         <v>973707000.0</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="V2" s="0" t="n">
         <v>923711000.0</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="W2" s="0" t="n">
         <v>889895000.0</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="X2" s="0" t="n">
         <v>891355000.0</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="Y2" s="0" t="n">
         <v>859000000.0</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Z2" s="0" t="n">
         <v>800652000.0</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="AA2" s="0" t="n">
         <v>749284000.0</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AB2" s="0" t="n">
         <v>666761000.0</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AC2" s="0" t="n">
         <v>627086000.0</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AD2" s="0" t="n">
         <v>572109000.0</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AE2" s="0" t="n">
         <v>548485000.0</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AF2" s="0" t="n">
         <v>533550000.0</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AG2" s="0" t="n">
         <v>524793000.0</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AH2" s="0" t="n">
         <v>512002000.0</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AI2" s="0" t="n">
         <v>500723000.0</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AJ2" s="0" t="n">
         <v>476631000.0</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AK2" s="0" t="n">
         <v>461939000.0</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AL2" s="0" t="n">
         <v>448551000.0</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AM2" s="0" t="n">
         <v>441358000.0</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AN2" s="0" t="n">
         <v>435126000.0</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AO2" s="0" t="n">
         <v>419451000.0</v>
       </c>
     </row>
@@ -370,120 +377,123 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
+        <v>582353000.0</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>589242000.0</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D3" s="0" t="n">
         <v>559703000.0</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>449662000.0</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>413639000.0</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>375766000.0</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <v>338586000.0</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>320530000.0</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>322113000.0</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>315264000.0</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>316240000.0</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>296827000.0</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="N3" s="0" t="n">
         <v>274113000.0</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>241786000.0</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <v>229938000.0</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
         <v>221196000.0</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R3" s="0" t="n">
         <v>216508000.0</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="S3" s="0" t="n">
         <v>209620000.0</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="T3" s="0" t="n">
         <v>193516000.0</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="U3" s="0" t="n">
         <v>177682000.0</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="V3" s="0" t="n">
         <v>164128000.0</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="W3" s="0" t="n">
         <v>152008000.0</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="X3" s="0" t="n">
         <v>142286000.0</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="Y3" s="0" t="n">
         <v>137302000.0</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="Z3" s="0" t="n">
         <v>130449000.0</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="AA3" s="0" t="n">
         <v>122267000.0</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AB3" s="0" t="n">
         <v>101216000.0</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AC3" s="0" t="n">
         <v>99350000.0</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AD3" s="0" t="n">
         <v>90707000.0</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AE3" s="0" t="n">
         <v>88391000.0</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="AF3" s="0" t="n">
         <v>97653000.0</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AG3" s="0" t="n">
         <v>94218000.0</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="AH3" s="0" t="n">
         <v>95225000.0</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AI3" s="0" t="n">
         <v>91830000.0</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="AJ3" s="0" t="n">
         <v>86817000.0</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AK3" s="0" t="n">
         <v>84643000.0</v>
       </c>
-      <c r="AK3" s="0" t="n">
+      <c r="AL3" s="0" t="n">
         <v>80332000.0</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="AM3" s="0" t="n">
         <v>84023000.0</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="AN3" s="0" t="n">
         <v>82973000.0</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="AO3" s="0" t="n">
         <v>78531000.0</v>
       </c>
     </row>
@@ -494,120 +504,123 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
+        <v>1250270000.0</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>1253091000.0</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="D4" s="0" t="n">
         <v>1279276000.0</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>1376323000.0</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>1378903000.0</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>1321781000.0</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>1264233100.0</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>1212898100.0</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>1196397100.0</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>1175948100.0</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>1180063000.0</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>1141918000.0</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="N4" s="0" t="n">
         <v>1109235000.0</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>1071860000.0</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>1025494000.0</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>979984000.0</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>967355000.0</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>907234000.0</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="T4" s="0" t="n">
         <v>851183000.0</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="U4" s="0" t="n">
         <v>796025000.0</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="V4" s="0" t="n">
         <v>759583000.0</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="W4" s="0" t="n">
         <v>737887000.0</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="X4" s="0" t="n">
         <v>749069000.0</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="Y4" s="0" t="n">
         <v>721698000.0</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Z4" s="0" t="n">
         <v>670203000.0</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="AA4" s="0" t="n">
         <v>627017000.0</v>
       </c>
-      <c r="AA4" s="0" t="n">
+      <c r="AB4" s="0" t="n">
         <v>565545000.0</v>
       </c>
-      <c r="AB4" s="0" t="n">
+      <c r="AC4" s="0" t="n">
         <v>527736000.0</v>
       </c>
-      <c r="AC4" s="0" t="n">
+      <c r="AD4" s="0" t="n">
         <v>481402000.0</v>
       </c>
-      <c r="AD4" s="0" t="n">
+      <c r="AE4" s="0" t="n">
         <v>460094000.0</v>
       </c>
-      <c r="AE4" s="0" t="n">
+      <c r="AF4" s="0" t="n">
         <v>435897000.0</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AG4" s="0" t="n">
         <v>430575000.0</v>
       </c>
-      <c r="AG4" s="0" t="n">
+      <c r="AH4" s="0" t="n">
         <v>416777000.0</v>
       </c>
-      <c r="AH4" s="0" t="n">
+      <c r="AI4" s="0" t="n">
         <v>408893000.0</v>
       </c>
-      <c r="AI4" s="0" t="n">
+      <c r="AJ4" s="0" t="n">
         <v>389814000.0</v>
       </c>
-      <c r="AJ4" s="0" t="n">
+      <c r="AK4" s="0" t="n">
         <v>377296000.0</v>
       </c>
-      <c r="AK4" s="0" t="n">
+      <c r="AL4" s="0" t="n">
         <v>368219000.0</v>
       </c>
-      <c r="AL4" s="0" t="n">
+      <c r="AM4" s="0" t="n">
         <v>357335000.0</v>
       </c>
-      <c r="AM4" s="0" t="n">
+      <c r="AN4" s="0" t="n">
         <v>352153000.0</v>
       </c>
-      <c r="AN4" s="0" t="n">
+      <c r="AO4" s="0" t="n">
         <v>340920000.0</v>
       </c>
     </row>
@@ -618,120 +631,123 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
+        <v>634584000.0</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>628116000.0</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="D5" s="0" t="n">
         <v>644261000.0</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>670171000.0</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>673673000.0</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>715007000.0</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <v>717585000.0</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>706030000.0</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>695971000.0</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="K5" s="0" t="n">
         <v>696328000.0</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>689546000.0</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>682241000.0</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="N5" s="0" t="n">
         <v>649698000.0</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>610753000.0</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <v>617387000.0</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="Q5" s="0" t="n">
         <v>624115000.0</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>648115000.0</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="S5" s="0" t="n">
         <v>661905000.0</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="T5" s="0" t="n">
         <v>662781000.0</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="U5" s="0" t="n">
         <v>660663000.0</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="V5" s="0" t="n">
         <v>651525000.0</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="W5" s="0" t="n">
         <v>634806000.0</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="X5" s="0" t="n">
         <v>600677000.0</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="Y5" s="0" t="n">
         <v>567650000.0</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Z5" s="0" t="n">
         <v>517451000.0</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="AA5" s="0" t="n">
         <v>461543000.0</v>
       </c>
-      <c r="AA5" s="0" t="n">
+      <c r="AB5" s="0" t="n">
         <v>416866000.0</v>
       </c>
-      <c r="AB5" s="0" t="n">
+      <c r="AC5" s="0" t="n">
         <v>379244000.0</v>
       </c>
-      <c r="AC5" s="0" t="n">
+      <c r="AD5" s="0" t="n">
         <v>357203000.0</v>
       </c>
-      <c r="AD5" s="0" t="n">
+      <c r="AE5" s="0" t="n">
         <v>354780000.0</v>
       </c>
-      <c r="AE5" s="0" t="n">
+      <c r="AF5" s="0" t="n">
         <v>341831000.0</v>
       </c>
-      <c r="AF5" s="0" t="n">
+      <c r="AG5" s="0" t="n">
         <v>319976000.0</v>
       </c>
-      <c r="AG5" s="0" t="n">
+      <c r="AH5" s="0" t="n">
         <v>312127000.0</v>
       </c>
-      <c r="AH5" s="0" t="n">
+      <c r="AI5" s="0" t="n">
         <v>302218000.0</v>
       </c>
-      <c r="AI5" s="0" t="n">
+      <c r="AJ5" s="0" t="n">
         <v>275726000.0</v>
       </c>
-      <c r="AJ5" s="0" t="n">
+      <c r="AK5" s="0" t="n">
         <v>268094000.0</v>
       </c>
-      <c r="AK5" s="0" t="n">
+      <c r="AL5" s="0" t="n">
         <v>243191000.0</v>
       </c>
-      <c r="AL5" s="0" t="n">
+      <c r="AM5" s="0" t="n">
         <v>214374000.0</v>
       </c>
-      <c r="AM5" s="0" t="n">
+      <c r="AN5" s="0" t="n">
         <v>198700000.0</v>
       </c>
-      <c r="AN5" s="0" t="n">
+      <c r="AO5" s="0" t="n">
         <v>179489000.0</v>
       </c>
     </row>
@@ -742,120 +758,123 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
+        <v>717603000.0</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>732716000.0</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>733842000.0</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>721153000.0</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>706552000.0</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>679279000.0</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>657195100.0</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>635649100.0</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>628175100.0</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>604353100.0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="L6" s="0" t="n">
         <v>600462000.0</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>582428000.0</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="N6" s="0" t="n">
         <v>572653000.0</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>554336000.0</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>537014000.0</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>525240000.0</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="R6" s="0" t="n">
         <v>491312000.0</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="S6" s="0" t="n">
         <v>476593000.0</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="T6" s="0" t="n">
         <v>447542000.0</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="U6" s="0" t="n">
         <v>422828000.0</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="V6" s="0" t="n">
         <v>414765000.0</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="W6" s="0" t="n">
         <v>402271000.0</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="X6" s="0" t="n">
         <v>387758000.0</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="Y6" s="0" t="n">
         <v>368318000.0</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Z6" s="0" t="n">
         <v>334893000.0</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="AA6" s="0" t="n">
         <v>302156000.0</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AB6" s="0" t="n">
         <v>274571000.0</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AC6" s="0" t="n">
         <v>261808000.0</v>
       </c>
-      <c r="AC6" s="0" t="n">
+      <c r="AD6" s="0" t="n">
         <v>244375000.0</v>
       </c>
-      <c r="AD6" s="0" t="n">
+      <c r="AE6" s="0" t="n">
         <v>235356000.0</v>
       </c>
-      <c r="AE6" s="0" t="n">
+      <c r="AF6" s="0" t="n">
         <v>218596000.0</v>
       </c>
-      <c r="AF6" s="0" t="n">
+      <c r="AG6" s="0" t="n">
         <v>203092000.0</v>
       </c>
-      <c r="AG6" s="0" t="n">
+      <c r="AH6" s="0" t="n">
         <v>203975000.0</v>
       </c>
-      <c r="AH6" s="0" t="n">
+      <c r="AI6" s="0" t="n">
         <v>198173000.0</v>
       </c>
-      <c r="AI6" s="0" t="n">
+      <c r="AJ6" s="0" t="n">
         <v>191615000.0</v>
       </c>
-      <c r="AJ6" s="0" t="n">
+      <c r="AK6" s="0" t="n">
         <v>190158000.0</v>
       </c>
-      <c r="AK6" s="0" t="n">
+      <c r="AL6" s="0" t="n">
         <v>179634000.0</v>
       </c>
-      <c r="AL6" s="0" t="n">
+      <c r="AM6" s="0" t="n">
         <v>175423000.0</v>
       </c>
-      <c r="AM6" s="0" t="n">
+      <c r="AN6" s="0" t="n">
         <v>169030000.0</v>
       </c>
-      <c r="AN6" s="0" t="n">
+      <c r="AO6" s="0" t="n">
         <v>162498000.0</v>
       </c>
     </row>
@@ -866,120 +885,123 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
+        <v>-116640200.0</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>-36765200.0</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="D7" s="0" t="n">
         <v>-1087200.0</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="E7" s="0" t="n">
         <v>58863800.0</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>58454800.0</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>-100457300.0</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>-129443100.0</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>-149194100.0</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="J7" s="0" t="n">
         <v>-133103100.0</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="K7" s="0" t="n">
         <v>-123524000.0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>-27328900.0</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>-25314900.0</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="N7" s="0" t="n">
         <v>-38863900.0</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <v>-14699900.0</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>-162367900.0</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>-208725900.0</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="R7" s="0" t="n">
         <v>-742719900.0</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="S7" s="0" t="n">
         <v>-803428900.0</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="T7" s="0" t="n">
         <v>-612489000.0</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="U7" s="0" t="n">
         <v>-634277000.0</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="V7" s="0" t="n">
         <v>-125759000.0</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="W7" s="0" t="n">
         <v>-110702000.0</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="X7" s="0" t="n">
         <v>-270777000.0</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="Y7" s="0" t="n">
         <v>-177701000.0</v>
       </c>
-      <c r="Y7" s="0" t="n">
+      <c r="Z7" s="0" t="n">
         <v>-132295000.0</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="AA7" s="0" t="n">
         <v>-92891000.0</v>
       </c>
-      <c r="AA7" s="0" t="n">
+      <c r="AB7" s="0" t="n">
         <v>-86445000.0</v>
       </c>
-      <c r="AB7" s="0" t="n">
+      <c r="AC7" s="0" t="n">
         <v>-148372000.0</v>
       </c>
-      <c r="AC7" s="0" t="n">
+      <c r="AD7" s="0" t="n">
         <v>-149542000.0</v>
       </c>
-      <c r="AD7" s="0" t="n">
+      <c r="AE7" s="0" t="n">
         <v>-156007000.0</v>
       </c>
-      <c r="AE7" s="0" t="n">
+      <c r="AF7" s="0" t="n">
         <v>-150601000.0</v>
       </c>
-      <c r="AF7" s="0" t="n">
+      <c r="AG7" s="0" t="n">
         <v>-110368000.0</v>
       </c>
-      <c r="AG7" s="0" t="n">
+      <c r="AH7" s="0" t="n">
         <v>-121270000.0</v>
       </c>
-      <c r="AH7" s="0" t="n">
+      <c r="AI7" s="0" t="n">
         <v>-110215000.0</v>
       </c>
-      <c r="AI7" s="0" t="n">
+      <c r="AJ7" s="0" t="n">
         <v>-84746000.0</v>
       </c>
-      <c r="AJ7" s="0" t="n">
+      <c r="AK7" s="0" t="n">
         <v>-89772000.0</v>
       </c>
-      <c r="AK7" s="0" t="n">
+      <c r="AL7" s="0" t="n">
         <v>-58050000.0</v>
       </c>
-      <c r="AL7" s="0" t="n">
+      <c r="AM7" s="0" t="n">
         <v>-33890000.0</v>
       </c>
-      <c r="AM7" s="0" t="n">
+      <c r="AN7" s="0" t="n">
         <v>-15805000.0</v>
       </c>
-      <c r="AN7" s="0" t="n">
+      <c r="AO7" s="0" t="n">
         <v>-2227000.0</v>
       </c>
     </row>
@@ -989,17 +1011,17 @@
           <t>Interest Expense (Operating)</t>
         </is>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>29309000.0</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="D8" s="0" t="n">
         <v>31490000.0</v>
       </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1176,6 +1198,11 @@
         </is>
       </c>
       <c r="AN8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1188,120 +1215,123 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
+        <v>21187000.0</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <v>81522000.0</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="D9" s="0" t="n">
         <v>79963000.0</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="E9" s="0" t="n">
         <v>87592000.0</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="F9" s="0" t="n">
         <v>80359000.0</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="G9" s="0" t="n">
         <v>22876000.0</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="H9" s="0" t="n">
         <v>1102000.0</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="I9" s="0" t="n">
         <v>-8382000.0</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="J9" s="0" t="n">
         <v>-11755000.0</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="K9" s="0" t="n">
         <v>-19181000.0</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="L9" s="0" t="n">
         <v>-17467000.0</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="M9" s="0" t="n">
         <v>-20689000.0</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="N9" s="0" t="n">
         <v>-23509000.0</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="O9" s="0" t="n">
         <v>-21175000.0</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="P9" s="0" t="n">
         <v>-20271000.0</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="Q9" s="0" t="n">
         <v>-20105000.0</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="R9" s="0" t="n">
         <v>-23510000.0</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="S9" s="0" t="n">
         <v>-27621000.0</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="T9" s="0" t="n">
         <v>-33430000.0</v>
       </c>
-      <c r="T9" s="0" t="n">
+      <c r="U9" s="0" t="n">
         <v>-35272000.0</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="V9" s="0" t="n">
         <v>-43388000.0</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="W9" s="0" t="n">
         <v>-44022000.0</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="X9" s="0" t="n">
         <v>-42649000.0</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="Y9" s="0" t="n">
         <v>-42061000.0</v>
       </c>
-      <c r="Y9" s="0" t="n">
+      <c r="Z9" s="0" t="n">
         <v>-32652000.0</v>
       </c>
-      <c r="Z9" s="0" t="n">
+      <c r="AA9" s="0" t="n">
         <v>-31977000.0</v>
       </c>
-      <c r="AA9" s="0" t="n">
+      <c r="AB9" s="0" t="n">
         <v>-32061000.0</v>
       </c>
-      <c r="AB9" s="0" t="n">
+      <c r="AC9" s="0" t="n">
         <v>-25671000.0</v>
       </c>
-      <c r="AC9" s="0" t="n">
+      <c r="AD9" s="0" t="n">
         <v>-17064000.0</v>
       </c>
-      <c r="AD9" s="0" t="n">
+      <c r="AE9" s="0" t="n">
         <v>-20496000.0</v>
       </c>
-      <c r="AE9" s="0" t="n">
+      <c r="AF9" s="0" t="n">
         <v>-16621000.0</v>
       </c>
-      <c r="AF9" s="0" t="n">
+      <c r="AG9" s="0" t="n">
         <v>-16299000.0</v>
       </c>
-      <c r="AG9" s="0" t="n">
+      <c r="AH9" s="0" t="n">
         <v>-17523000.0</v>
       </c>
-      <c r="AH9" s="0" t="n">
+      <c r="AI9" s="0" t="n">
         <v>-8063000.0</v>
       </c>
-      <c r="AI9" s="0" t="n">
+      <c r="AJ9" s="0" t="n">
         <v>-6554000.0</v>
       </c>
-      <c r="AJ9" s="0" t="n">
+      <c r="AK9" s="0" t="n">
         <v>-9498000.0</v>
       </c>
-      <c r="AK9" s="0" t="n">
+      <c r="AL9" s="0" t="n">
         <v>-9976000.0</v>
       </c>
-      <c r="AL9" s="0" t="n">
+      <c r="AM9" s="0" t="n">
         <v>-9737000.0</v>
       </c>
-      <c r="AM9" s="0" t="n">
+      <c r="AN9" s="0" t="n">
         <v>-23944000.0</v>
       </c>
-      <c r="AN9" s="0" t="n">
+      <c r="AO9" s="0" t="n">
         <v>-22409000.0</v>
       </c>
     </row>
@@ -1312,120 +1342,123 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
+        <v>15170000.0</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>16610000.0</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>18750000.0</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>17683000.0</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>20258000.0</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="G10" s="0" t="n">
         <v>21741000.0</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <v>24276000.0</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="I10" s="0" t="n">
         <v>33470000.0</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="J10" s="0" t="n">
         <v>38829000.0</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="K10" s="0" t="n">
         <v>43664000.0</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="L10" s="0" t="n">
         <v>47582000.0</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>46335000.0</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="N10" s="0" t="n">
         <v>44150000.0</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <v>42707000.0</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="P10" s="0" t="n">
         <v>40775000.0</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="Q10" s="0" t="n">
         <v>39871000.0</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="R10" s="0" t="n">
         <v>39775000.0</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="S10" s="0" t="n">
         <v>39499000.0</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="T10" s="0" t="n">
         <v>39100000.0</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="U10" s="0" t="n">
         <v>38567000.0</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="V10" s="0" t="n">
         <v>38625000.0</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="W10" s="0" t="n">
         <v>38244000.0</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="X10" s="0" t="n">
         <v>38108000.0</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="Y10" s="0" t="n">
         <v>37779000.0</v>
       </c>
-      <c r="Y10" s="0" t="n">
+      <c r="Z10" s="0" t="n">
         <v>36998000.0</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="AA10" s="0" t="n">
         <v>36642000.0</v>
       </c>
-      <c r="AA10" s="0" t="n">
+      <c r="AB10" s="0" t="n">
         <v>35038000.0</v>
       </c>
-      <c r="AB10" s="0" t="n">
+      <c r="AC10" s="0" t="n">
         <v>26446000.0</v>
       </c>
-      <c r="AC10" s="0" t="n">
+      <c r="AD10" s="0" t="n">
         <v>17828000.0</v>
       </c>
-      <c r="AD10" s="0" t="n">
+      <c r="AE10" s="0" t="n">
         <v>10447000.0</v>
       </c>
-      <c r="AE10" s="0" t="n">
+      <c r="AF10" s="0" t="n">
         <v>4784000.0</v>
       </c>
-      <c r="AF10" s="0" t="n">
+      <c r="AG10" s="0" t="n">
         <v>6095000.0</v>
       </c>
-      <c r="AG10" s="0" t="n">
+      <c r="AH10" s="0" t="n">
         <v>7417000.0</v>
       </c>
-      <c r="AH10" s="0" t="n">
+      <c r="AI10" s="0" t="n">
         <v>7639000.0</v>
       </c>
-      <c r="AI10" s="0" t="n">
+      <c r="AJ10" s="0" t="n">
         <v>7586000.0</v>
       </c>
-      <c r="AJ10" s="0" t="n">
+      <c r="AK10" s="0" t="n">
         <v>7917000.0</v>
       </c>
-      <c r="AK10" s="0" t="n">
+      <c r="AL10" s="0" t="n">
         <v>8193000.0</v>
       </c>
-      <c r="AL10" s="0" t="n">
+      <c r="AM10" s="0" t="n">
         <v>8409000.0</v>
       </c>
-      <c r="AM10" s="0" t="n">
+      <c r="AN10" s="0" t="n">
         <v>9278000.0</v>
       </c>
-      <c r="AN10" s="0" t="n">
+      <c r="AO10" s="0" t="n">
         <v>10118000.0</v>
       </c>
     </row>
@@ -1436,120 +1469,123 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
+        <v>-120446000.0</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>-42322000.0</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="D11" s="0" t="n">
         <v>-11918000.0</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="E11" s="0" t="n">
         <v>59120000.0</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>59498000.0</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="G11" s="0" t="n">
         <v>-94811000.0</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>-128341000.0</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="I11" s="0" t="n">
         <v>-157576000.0</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="J11" s="0" t="n">
         <v>-144858000.0</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="K11" s="0" t="n">
         <v>-142705000.0</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>-44796000.0</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>-46004000.0</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="N11" s="0" t="n">
         <v>-62373000.0</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>-35875000.0</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>-182639000.0</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>-228831000.0</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <v>-766230000.0</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="S11" s="0" t="n">
         <v>-831050000.0</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="T11" s="0" t="n">
         <v>-645919000.0</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="U11" s="0" t="n">
         <v>-669549000.0</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="V11" s="0" t="n">
         <v>-169147000.0</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="W11" s="0" t="n">
         <v>-154724000.0</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="X11" s="0" t="n">
         <v>-313426000.0</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="Y11" s="0" t="n">
         <v>-219762000.0</v>
       </c>
-      <c r="Y11" s="0" t="n">
+      <c r="Z11" s="0" t="n">
         <v>-164947000.0</v>
       </c>
-      <c r="Z11" s="0" t="n">
+      <c r="AA11" s="0" t="n">
         <v>-124868000.0</v>
       </c>
-      <c r="AA11" s="0" t="n">
+      <c r="AB11" s="0" t="n">
         <v>-118506000.0</v>
       </c>
-      <c r="AB11" s="0" t="n">
+      <c r="AC11" s="0" t="n">
         <v>-174043000.0</v>
       </c>
-      <c r="AC11" s="0" t="n">
+      <c r="AD11" s="0" t="n">
         <v>-166606000.0</v>
       </c>
-      <c r="AD11" s="0" t="n">
+      <c r="AE11" s="0" t="n">
         <v>-176503000.0</v>
       </c>
-      <c r="AE11" s="0" t="n">
+      <c r="AF11" s="0" t="n">
         <v>-167222000.0</v>
       </c>
-      <c r="AF11" s="0" t="n">
+      <c r="AG11" s="0" t="n">
         <v>-126667000.0</v>
       </c>
-      <c r="AG11" s="0" t="n">
+      <c r="AH11" s="0" t="n">
         <v>-138793000.0</v>
       </c>
-      <c r="AH11" s="0" t="n">
+      <c r="AI11" s="0" t="n">
         <v>-118278000.0</v>
       </c>
-      <c r="AI11" s="0" t="n">
+      <c r="AJ11" s="0" t="n">
         <v>-91300000.0</v>
       </c>
-      <c r="AJ11" s="0" t="n">
+      <c r="AK11" s="0" t="n">
         <v>-99270000.0</v>
       </c>
-      <c r="AK11" s="0" t="n">
+      <c r="AL11" s="0" t="n">
         <v>-68026000.0</v>
       </c>
-      <c r="AL11" s="0" t="n">
+      <c r="AM11" s="0" t="n">
         <v>-43627000.0</v>
       </c>
-      <c r="AM11" s="0" t="n">
+      <c r="AN11" s="0" t="n">
         <v>-39749000.0</v>
       </c>
-      <c r="AN11" s="0" t="n">
+      <c r="AO11" s="0" t="n">
         <v>-24636000.0</v>
       </c>
     </row>
@@ -1560,120 +1596,123 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
+        <v>-915536000.0</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>-901422000.0</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="D12" s="0" t="n">
         <v>-863943000.0</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>-63138000.0</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>-54508000.0</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="G12" s="0" t="n">
         <v>-70963000.0</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <v>-85819000.0</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="I12" s="0" t="n">
         <v>-47398000.0</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="J12" s="0" t="n">
         <v>-55323000.0</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="K12" s="0" t="n">
         <v>-65494000.0</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="L12" s="0" t="n">
         <v>80157000.0</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>78856000.0</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="N12" s="0" t="n">
         <v>82528000.0</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="O12" s="0" t="n">
         <v>81167000.0</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>-26269000.0</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="Q12" s="0" t="n">
         <v>-47563000.0</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="R12" s="0" t="n">
         <v>-202781000.0</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="S12" s="0" t="n">
         <v>-200840000.0</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="T12" s="0" t="n">
         <v>-175046000.0</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="U12" s="0" t="n">
         <v>-145175000.0</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="V12" s="0" t="n">
         <v>18202000.0</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="W12" s="0" t="n">
         <v>17075000.0</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="X12" s="0" t="n">
         <v>-3213000.0</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="Y12" s="0" t="n">
         <v>-7920000.0</v>
       </c>
-      <c r="Y12" s="0" t="n">
+      <c r="Z12" s="0" t="n">
         <v>-1592000.0</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="AA12" s="0" t="n">
         <v>9101000.0</v>
       </c>
-      <c r="AA12" s="0" t="n">
+      <c r="AB12" s="0" t="n">
         <v>7656000.0</v>
       </c>
-      <c r="AB12" s="0" t="n">
+      <c r="AC12" s="0" t="n">
         <v>12584000.0</v>
       </c>
-      <c r="AC12" s="0" t="n">
+      <c r="AD12" s="0" t="n">
         <v>8052000.0</v>
       </c>
-      <c r="AD12" s="0" t="n">
+      <c r="AE12" s="0" t="n">
         <v>-150000.0</v>
       </c>
-      <c r="AE12" s="0" t="n">
+      <c r="AF12" s="0" t="n">
         <v>153000.0</v>
       </c>
-      <c r="AF12" s="0" t="n">
+      <c r="AG12" s="0" t="n">
         <v>-6955000.0</v>
       </c>
-      <c r="AG12" s="0" t="n">
+      <c r="AH12" s="0" t="n">
         <v>-8608000.0</v>
       </c>
-      <c r="AH12" s="0" t="n">
+      <c r="AI12" s="0" t="n">
         <v>-3931000.0</v>
       </c>
-      <c r="AI12" s="0" t="n">
+      <c r="AJ12" s="0" t="n">
         <v>-3230000.0</v>
       </c>
-      <c r="AJ12" s="0" t="n">
+      <c r="AK12" s="0" t="n">
         <v>1096000.0</v>
       </c>
-      <c r="AK12" s="0" t="n">
+      <c r="AL12" s="0" t="n">
         <v>5411000.0</v>
       </c>
-      <c r="AL12" s="0" t="n">
+      <c r="AM12" s="0" t="n">
         <v>10209000.0</v>
       </c>
-      <c r="AM12" s="0" t="n">
+      <c r="AN12" s="0" t="n">
         <v>-459000.0</v>
       </c>
-      <c r="AN12" s="0" t="n">
+      <c r="AO12" s="0" t="n">
         <v>-220333000.0</v>
       </c>
     </row>
@@ -1684,120 +1723,123 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
+        <v>795090000.0</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>859100000.0</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="D13" s="0" t="n">
         <v>852025000.0</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="E13" s="0" t="n">
         <v>122258000.0</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>114006000.0</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="G13" s="0" t="n">
         <v>-23848000.0</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="H13" s="0" t="n">
         <v>-42522000.0</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="I13" s="0" t="n">
         <v>-110178000.0</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="J13" s="0" t="n">
         <v>-89535000.0</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="K13" s="0" t="n">
         <v>-77211000.0</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="L13" s="0" t="n">
         <v>-124953000.0</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>-124860000.0</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="N13" s="0" t="n">
         <v>-144901000.0</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="O13" s="0" t="n">
         <v>-117042000.0</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>-156370000.0</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>-181268000.0</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="R13" s="0" t="n">
         <v>-563449000.0</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="S13" s="0" t="n">
         <v>-630210000.0</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="T13" s="0" t="n">
         <v>-470873000.0</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="U13" s="0" t="n">
         <v>-524374000.0</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="V13" s="0" t="n">
         <v>-187349000.0</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="W13" s="0" t="n">
         <v>-171799000.0</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="X13" s="0" t="n">
         <v>-310213000.0</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="Y13" s="0" t="n">
         <v>-211842000.0</v>
       </c>
-      <c r="Y13" s="0" t="n">
+      <c r="Z13" s="0" t="n">
         <v>-163355000.0</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="AA13" s="0" t="n">
         <v>-133969000.0</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AB13" s="0" t="n">
         <v>-126162000.0</v>
       </c>
-      <c r="AB13" s="0" t="n">
+      <c r="AC13" s="0" t="n">
         <v>-186627000.0</v>
       </c>
-      <c r="AC13" s="0" t="n">
+      <c r="AD13" s="0" t="n">
         <v>-174658000.0</v>
       </c>
-      <c r="AD13" s="0" t="n">
+      <c r="AE13" s="0" t="n">
         <v>-176353000.0</v>
       </c>
-      <c r="AE13" s="0" t="n">
+      <c r="AF13" s="0" t="n">
         <v>-167375000.0</v>
       </c>
-      <c r="AF13" s="0" t="n">
+      <c r="AG13" s="0" t="n">
         <v>-119712000.0</v>
       </c>
-      <c r="AG13" s="0" t="n">
+      <c r="AH13" s="0" t="n">
         <v>-130185000.0</v>
       </c>
-      <c r="AH13" s="0" t="n">
+      <c r="AI13" s="0" t="n">
         <v>-114347000.0</v>
       </c>
-      <c r="AI13" s="0" t="n">
+      <c r="AJ13" s="0" t="n">
         <v>-88070000.0</v>
       </c>
-      <c r="AJ13" s="0" t="n">
+      <c r="AK13" s="0" t="n">
         <v>-100366000.0</v>
       </c>
-      <c r="AK13" s="0" t="n">
+      <c r="AL13" s="0" t="n">
         <v>-73437000.0</v>
       </c>
-      <c r="AL13" s="0" t="n">
+      <c r="AM13" s="0" t="n">
         <v>-53836000.0</v>
       </c>
-      <c r="AM13" s="0" t="n">
+      <c r="AN13" s="0" t="n">
         <v>-39290000.0</v>
       </c>
-      <c r="AN13" s="0" t="n">
+      <c r="AO13" s="0" t="n">
         <v>195697000.0</v>
       </c>
     </row>
@@ -1808,120 +1850,123 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
+        <v>795090000.0</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>859100000.0</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="D14" s="0" t="n">
         <v>852025000.0</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="E14" s="0" t="n">
         <v>122258000.0</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="F14" s="0" t="n">
         <v>114006000.0</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="G14" s="0" t="n">
         <v>-23848000.0</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="H14" s="0" t="n">
         <v>-42522000.0</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="I14" s="0" t="n">
         <v>-110178000.0</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="J14" s="0" t="n">
         <v>-89535000.0</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="K14" s="0" t="n">
         <v>-77211000.0</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="L14" s="0" t="n">
         <v>-124953000.0</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>-124860000.0</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="N14" s="0" t="n">
         <v>-144901000.0</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="O14" s="0" t="n">
         <v>-117042000.0</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="P14" s="0" t="n">
         <v>-156370000.0</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="Q14" s="0" t="n">
         <v>-181268000.0</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="R14" s="0" t="n">
         <v>-563449000.0</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="S14" s="0" t="n">
         <v>-630210000.0</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="T14" s="0" t="n">
         <v>-470873000.0</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="U14" s="0" t="n">
         <v>-524374000.0</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="V14" s="0" t="n">
         <v>-187349000.0</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="W14" s="0" t="n">
         <v>-171799000.0</v>
       </c>
-      <c r="W14" s="0" t="n">
+      <c r="X14" s="0" t="n">
         <v>-310213000.0</v>
       </c>
-      <c r="X14" s="0" t="n">
+      <c r="Y14" s="0" t="n">
         <v>-211842000.0</v>
       </c>
-      <c r="Y14" s="0" t="n">
+      <c r="Z14" s="0" t="n">
         <v>-163355000.0</v>
       </c>
-      <c r="Z14" s="0" t="n">
+      <c r="AA14" s="0" t="n">
         <v>-133969000.0</v>
       </c>
-      <c r="AA14" s="0" t="n">
+      <c r="AB14" s="0" t="n">
         <v>-126162000.0</v>
       </c>
-      <c r="AB14" s="0" t="n">
+      <c r="AC14" s="0" t="n">
         <v>-186627000.0</v>
       </c>
-      <c r="AC14" s="0" t="n">
+      <c r="AD14" s="0" t="n">
         <v>-174658000.0</v>
       </c>
-      <c r="AD14" s="0" t="n">
+      <c r="AE14" s="0" t="n">
         <v>-176353000.0</v>
       </c>
-      <c r="AE14" s="0" t="n">
+      <c r="AF14" s="0" t="n">
         <v>-167375000.0</v>
       </c>
-      <c r="AF14" s="0" t="n">
+      <c r="AG14" s="0" t="n">
         <v>-119712000.0</v>
       </c>
-      <c r="AG14" s="0" t="n">
+      <c r="AH14" s="0" t="n">
         <v>-130185000.0</v>
       </c>
-      <c r="AH14" s="0" t="n">
+      <c r="AI14" s="0" t="n">
         <v>-114347000.0</v>
       </c>
-      <c r="AI14" s="0" t="n">
+      <c r="AJ14" s="0" t="n">
         <v>-88070000.0</v>
       </c>
-      <c r="AJ14" s="0" t="n">
+      <c r="AK14" s="0" t="n">
         <v>-100366000.0</v>
       </c>
-      <c r="AK14" s="0" t="n">
+      <c r="AL14" s="0" t="n">
         <v>-73437000.0</v>
       </c>
-      <c r="AL14" s="0" t="n">
+      <c r="AM14" s="0" t="n">
         <v>-53836000.0</v>
       </c>
-      <c r="AM14" s="0" t="n">
+      <c r="AN14" s="0" t="n">
         <v>-39290000.0</v>
       </c>
-      <c r="AN14" s="0" t="n">
+      <c r="AO14" s="0" t="n">
         <v>195697000.0</v>
       </c>
     </row>
@@ -1931,121 +1976,126 @@
           <t>EPS (Basic)</t>
         </is>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>4.36</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="D15" s="0" t="n">
         <v>4.37</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="E15" s="0" t="n">
         <v>0.67</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="F15" s="0" t="n">
         <v>0.62</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="G15" s="0" t="n">
         <v>-0.14</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="H15" s="0" t="n">
         <v>-0.24</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="I15" s="0" t="n">
         <v>-0.62</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="J15" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="K15" s="0" t="n">
         <v>-0.43</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>-0.7</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>-0.7</v>
       </c>
       <c r="M15" s="0" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="N15" s="0" t="n">
         <v>-0.82</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="O15" s="0" t="n">
         <v>-0.66</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="P15" s="0" t="n">
         <v>-0.9</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="Q15" s="0" t="n">
         <v>-1.09</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="R15" s="0" t="n">
         <v>-3.49</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="S15" s="0" t="n">
         <v>-3.93</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="T15" s="0" t="n">
         <v>-2.97</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="U15" s="0" t="n">
         <v>-3.28</v>
       </c>
-      <c r="U15" s="0" t="n">
+      <c r="V15" s="0" t="n">
         <v>-1.18</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="W15" s="0" t="n">
         <v>-1.08</v>
       </c>
-      <c r="W15" s="0" t="n">
+      <c r="X15" s="0" t="n">
         <v>-1.98</v>
       </c>
-      <c r="X15" s="0" t="n">
+      <c r="Y15" s="0" t="n">
         <v>-1.36</v>
       </c>
-      <c r="Y15" s="0" t="n">
+      <c r="Z15" s="0" t="n">
         <v>-1.08</v>
       </c>
-      <c r="Z15" s="0" t="n">
+      <c r="AA15" s="0" t="n">
         <v>-0.91</v>
       </c>
-      <c r="AA15" s="0" t="n">
+      <c r="AB15" s="0" t="n">
         <v>-0.87</v>
       </c>
-      <c r="AB15" s="0" t="n">
+      <c r="AC15" s="0" t="n">
         <v>-1.3</v>
       </c>
-      <c r="AC15" s="0" t="n">
+      <c r="AD15" s="0" t="n">
         <v>-1.22</v>
-      </c>
-      <c r="AD15" s="0" t="n">
-        <v>-1.27</v>
       </c>
       <c r="AE15" s="0" t="n">
         <v>-1.27</v>
       </c>
       <c r="AF15" s="0" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="AG15" s="0" t="n">
         <v>-0.93</v>
       </c>
-      <c r="AG15" s="0" t="n">
+      <c r="AH15" s="0" t="n">
         <v>-1.05</v>
       </c>
-      <c r="AH15" s="0" t="n">
+      <c r="AI15" s="0" t="n">
         <v>-0.95</v>
       </c>
-      <c r="AI15" s="0" t="n">
+      <c r="AJ15" s="0" t="n">
         <v>-0.75</v>
       </c>
-      <c r="AJ15" s="0" t="n">
+      <c r="AK15" s="0" t="n">
         <v>-0.87</v>
       </c>
-      <c r="AK15" s="0" t="n">
+      <c r="AL15" s="0" t="n">
         <v>-0.65</v>
       </c>
-      <c r="AL15" s="0" t="n">
+      <c r="AM15" s="0" t="n">
         <v>-0.48</v>
       </c>
-      <c r="AM15" s="0" t="n">
+      <c r="AN15" s="0" t="n">
         <v>-0.36</v>
       </c>
-      <c r="AN15" s="0" t="n">
+      <c r="AO15" s="0" t="n">
         <v>1.93</v>
       </c>
     </row>
@@ -2056,120 +2106,123 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
+        <v>0.6822</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>0.6802</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="D16" s="0" t="n">
         <v>0.6956</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="E16" s="0" t="n">
         <v>0.7537</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="F16" s="0" t="n">
         <v>0.7692</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="G16" s="0" t="n">
         <v>0.7786</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="H16" s="0" t="n">
         <v>0.7888</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="I16" s="0" t="n">
         <v>0.791</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="J16" s="0" t="n">
         <v>0.7879</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="K16" s="0" t="n">
         <v>0.7886</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="L16" s="0" t="n">
         <v>0.7887</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>0.7937</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="N16" s="0" t="n">
         <v>0.8018</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="O16" s="0" t="n">
         <v>0.8159</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="P16" s="0" t="n">
         <v>0.8168</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="Q16" s="0" t="n">
         <v>0.8159</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="R16" s="0" t="n">
         <v>0.8171</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="S16" s="0" t="n">
         <v>0.8123</v>
       </c>
-      <c r="S16" s="0" t="n">
+      <c r="T16" s="0" t="n">
         <v>0.8148</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="U16" s="0" t="n">
         <v>0.8175</v>
       </c>
-      <c r="U16" s="0" t="n">
+      <c r="V16" s="0" t="n">
         <v>0.8223</v>
       </c>
-      <c r="V16" s="0" t="n">
+      <c r="W16" s="0" t="n">
         <v>0.8292</v>
       </c>
-      <c r="W16" s="0" t="n">
+      <c r="X16" s="0" t="n">
         <v>0.8404</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="Y16" s="0" t="n">
         <v>0.8402</v>
       </c>
-      <c r="Y16" s="0" t="n">
+      <c r="Z16" s="0" t="n">
         <v>0.8371</v>
       </c>
-      <c r="Z16" s="0" t="n">
+      <c r="AA16" s="0" t="n">
         <v>0.8368</v>
       </c>
-      <c r="AA16" s="0" t="n">
+      <c r="AB16" s="0" t="n">
         <v>0.8482</v>
       </c>
-      <c r="AB16" s="0" t="n">
+      <c r="AC16" s="0" t="n">
         <v>0.8416</v>
       </c>
-      <c r="AC16" s="0" t="n">
+      <c r="AD16" s="0" t="n">
         <v>0.8415</v>
       </c>
-      <c r="AD16" s="0" t="n">
+      <c r="AE16" s="0" t="n">
         <v>0.8388</v>
       </c>
-      <c r="AE16" s="0" t="n">
+      <c r="AF16" s="0" t="n">
         <v>0.817</v>
       </c>
-      <c r="AF16" s="0" t="n">
+      <c r="AG16" s="0" t="n">
         <v>0.8205</v>
       </c>
-      <c r="AG16" s="0" t="n">
+      <c r="AH16" s="0" t="n">
         <v>0.814</v>
       </c>
-      <c r="AH16" s="0" t="n">
+      <c r="AI16" s="0" t="n">
         <v>0.8166</v>
       </c>
-      <c r="AI16" s="0" t="n">
+      <c r="AJ16" s="0" t="n">
         <v>0.8179</v>
       </c>
-      <c r="AJ16" s="0" t="n">
+      <c r="AK16" s="0" t="n">
         <v>0.8168</v>
       </c>
-      <c r="AK16" s="0" t="n">
+      <c r="AL16" s="0" t="n">
         <v>0.8209</v>
       </c>
-      <c r="AL16" s="0" t="n">
+      <c r="AM16" s="0" t="n">
         <v>0.8096</v>
       </c>
-      <c r="AM16" s="0" t="n">
+      <c r="AN16" s="0" t="n">
         <v>0.8093</v>
       </c>
-      <c r="AN16" s="0" t="n">
+      <c r="AO16" s="0" t="n">
         <v>0.8128</v>
       </c>
     </row>
@@ -2180,120 +2233,123 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
+        <v>-0.0636</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>-0.02</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="D17" s="0" t="n">
         <v>-0.0006</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="E17" s="0" t="n">
         <v>0.0322</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="F17" s="0" t="n">
         <v>0.0326</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="G17" s="0" t="n">
         <v>-0.0592</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="H17" s="0" t="n">
         <v>-0.0808</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="I17" s="0" t="n">
         <v>-0.0973</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="J17" s="0" t="n">
         <v>-0.0877</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="K17" s="0" t="n">
         <v>-0.0828</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="L17" s="0" t="n">
         <v>-0.0183</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="M17" s="0" t="n">
         <v>-0.0176</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="N17" s="0" t="n">
         <v>-0.0281</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="O17" s="0" t="n">
         <v>-0.0112</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="P17" s="0" t="n">
         <v>-0.1293</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="Q17" s="0" t="n">
         <v>-0.1738</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="R17" s="0" t="n">
         <v>-0.6274</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="S17" s="0" t="n">
         <v>-0.7194</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="T17" s="0" t="n">
         <v>-0.5863</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="U17" s="0" t="n">
         <v>-0.6514</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="V17" s="0" t="n">
         <v>-0.1361</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="W17" s="0" t="n">
         <v>-0.1244</v>
       </c>
-      <c r="W17" s="0" t="n">
+      <c r="X17" s="0" t="n">
         <v>-0.3038</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="Y17" s="0" t="n">
         <v>-0.2069</v>
       </c>
-      <c r="Y17" s="0" t="n">
+      <c r="Z17" s="0" t="n">
         <v>-0.1652</v>
       </c>
-      <c r="Z17" s="0" t="n">
+      <c r="AA17" s="0" t="n">
         <v>-0.124</v>
       </c>
-      <c r="AA17" s="0" t="n">
+      <c r="AB17" s="0" t="n">
         <v>-0.1296</v>
       </c>
-      <c r="AB17" s="0" t="n">
+      <c r="AC17" s="0" t="n">
         <v>-0.2366</v>
       </c>
-      <c r="AC17" s="0" t="n">
+      <c r="AD17" s="0" t="n">
         <v>-0.2614</v>
       </c>
-      <c r="AD17" s="0" t="n">
+      <c r="AE17" s="0" t="n">
         <v>-0.2844</v>
       </c>
-      <c r="AE17" s="0" t="n">
+      <c r="AF17" s="0" t="n">
         <v>-0.2823</v>
       </c>
-      <c r="AF17" s="0" t="n">
+      <c r="AG17" s="0" t="n">
         <v>-0.2103</v>
       </c>
-      <c r="AG17" s="0" t="n">
+      <c r="AH17" s="0" t="n">
         <v>-0.2369</v>
       </c>
-      <c r="AH17" s="0" t="n">
+      <c r="AI17" s="0" t="n">
         <v>-0.2201</v>
       </c>
-      <c r="AI17" s="0" t="n">
+      <c r="AJ17" s="0" t="n">
         <v>-0.1778</v>
       </c>
-      <c r="AJ17" s="0" t="n">
+      <c r="AK17" s="0" t="n">
         <v>-0.1943</v>
       </c>
-      <c r="AK17" s="0" t="n">
+      <c r="AL17" s="0" t="n">
         <v>-0.1294</v>
       </c>
-      <c r="AL17" s="0" t="n">
+      <c r="AM17" s="0" t="n">
         <v>-0.0768</v>
       </c>
-      <c r="AM17" s="0" t="n">
+      <c r="AN17" s="0" t="n">
         <v>-0.0363</v>
       </c>
-      <c r="AN17" s="0" t="n">
+      <c r="AO17" s="0" t="n">
         <v>-0.0053</v>
       </c>
     </row>
@@ -2304,120 +2360,123 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
+        <v>-0.0657</v>
+      </c>
+      <c r="C18" s="0" t="n">
         <v>-0.023</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="D18" s="0" t="n">
         <v>-0.0065</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="E18" s="0" t="n">
         <v>0.0324</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="F18" s="0" t="n">
         <v>0.0332</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="G18" s="0" t="n">
         <v>-0.0559</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="H18" s="0" t="n">
         <v>-0.0801</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="I18" s="0" t="n">
         <v>-0.1028</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="J18" s="0" t="n">
         <v>-0.0954</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="K18" s="0" t="n">
         <v>-0.0957</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="L18" s="0" t="n">
         <v>-0.0299</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="M18" s="0" t="n">
         <v>-0.032</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="N18" s="0" t="n">
         <v>-0.0451</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="O18" s="0" t="n">
         <v>-0.0273</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="P18" s="0" t="n">
         <v>-0.1455</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="Q18" s="0" t="n">
         <v>-0.1905</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="R18" s="0" t="n">
         <v>-0.6472</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="S18" s="0" t="n">
         <v>-0.7441</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="T18" s="0" t="n">
         <v>-0.6183</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="U18" s="0" t="n">
         <v>-0.6876</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="V18" s="0" t="n">
         <v>-0.1831</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="W18" s="0" t="n">
         <v>-0.1739</v>
       </c>
-      <c r="W18" s="0" t="n">
+      <c r="X18" s="0" t="n">
         <v>-0.3516</v>
       </c>
-      <c r="X18" s="0" t="n">
+      <c r="Y18" s="0" t="n">
         <v>-0.2558</v>
       </c>
-      <c r="Y18" s="0" t="n">
+      <c r="Z18" s="0" t="n">
         <v>-0.206</v>
       </c>
-      <c r="Z18" s="0" t="n">
+      <c r="AA18" s="0" t="n">
         <v>-0.1666</v>
       </c>
-      <c r="AA18" s="0" t="n">
+      <c r="AB18" s="0" t="n">
         <v>-0.1777</v>
       </c>
-      <c r="AB18" s="0" t="n">
+      <c r="AC18" s="0" t="n">
         <v>-0.2775</v>
       </c>
-      <c r="AC18" s="0" t="n">
+      <c r="AD18" s="0" t="n">
         <v>-0.2912</v>
       </c>
-      <c r="AD18" s="0" t="n">
+      <c r="AE18" s="0" t="n">
         <v>-0.3218</v>
       </c>
-      <c r="AE18" s="0" t="n">
+      <c r="AF18" s="0" t="n">
         <v>-0.3134</v>
       </c>
-      <c r="AF18" s="0" t="n">
+      <c r="AG18" s="0" t="n">
         <v>-0.2414</v>
       </c>
-      <c r="AG18" s="0" t="n">
+      <c r="AH18" s="0" t="n">
         <v>-0.2711</v>
       </c>
-      <c r="AH18" s="0" t="n">
+      <c r="AI18" s="0" t="n">
         <v>-0.2362</v>
       </c>
-      <c r="AI18" s="0" t="n">
+      <c r="AJ18" s="0" t="n">
         <v>-0.1916</v>
       </c>
-      <c r="AJ18" s="0" t="n">
+      <c r="AK18" s="0" t="n">
         <v>-0.2149</v>
       </c>
-      <c r="AK18" s="0" t="n">
+      <c r="AL18" s="0" t="n">
         <v>-0.1517</v>
       </c>
-      <c r="AL18" s="0" t="n">
+      <c r="AM18" s="0" t="n">
         <v>-0.0988</v>
       </c>
-      <c r="AM18" s="0" t="n">
+      <c r="AN18" s="0" t="n">
         <v>-0.0914</v>
       </c>
-      <c r="AN18" s="0" t="n">
+      <c r="AO18" s="0" t="n">
         <v>-0.0587</v>
       </c>
     </row>
@@ -2428,120 +2487,123 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
+        <v>0.4339</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>0.4663</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="D19" s="0" t="n">
         <v>0.4633</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="E19" s="0" t="n">
         <v>0.067</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="F19" s="0" t="n">
         <v>0.0636</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="G19" s="0" t="n">
         <v>-0.014</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="H19" s="0" t="n">
         <v>-0.0265</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="I19" s="0" t="n">
         <v>-0.0719</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="J19" s="0" t="n">
         <v>-0.059</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="K19" s="0" t="n">
         <v>-0.0518</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="L19" s="0" t="n">
         <v>-0.0835</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="M19" s="0" t="n">
         <v>-0.0868</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="N19" s="0" t="n">
         <v>-0.1047</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="O19" s="0" t="n">
         <v>-0.0891</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="P19" s="0" t="n">
         <v>-0.1246</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="Q19" s="0" t="n">
         <v>-0.1509</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="R19" s="0" t="n">
         <v>-0.4759</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="S19" s="0" t="n">
         <v>-0.5643</v>
       </c>
-      <c r="S19" s="0" t="n">
+      <c r="T19" s="0" t="n">
         <v>-0.4507</v>
       </c>
-      <c r="T19" s="0" t="n">
+      <c r="U19" s="0" t="n">
         <v>-0.5385</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="V19" s="0" t="n">
         <v>-0.2028</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="W19" s="0" t="n">
         <v>-0.1931</v>
       </c>
-      <c r="W19" s="0" t="n">
+      <c r="X19" s="0" t="n">
         <v>-0.348</v>
       </c>
-      <c r="X19" s="0" t="n">
+      <c r="Y19" s="0" t="n">
         <v>-0.2466</v>
       </c>
-      <c r="Y19" s="0" t="n">
+      <c r="Z19" s="0" t="n">
         <v>-0.204</v>
       </c>
-      <c r="Z19" s="0" t="n">
+      <c r="AA19" s="0" t="n">
         <v>-0.1788</v>
       </c>
-      <c r="AA19" s="0" t="n">
+      <c r="AB19" s="0" t="n">
         <v>-0.1892</v>
       </c>
-      <c r="AB19" s="0" t="n">
+      <c r="AC19" s="0" t="n">
         <v>-0.2976</v>
       </c>
-      <c r="AC19" s="0" t="n">
+      <c r="AD19" s="0" t="n">
         <v>-0.3053</v>
       </c>
-      <c r="AD19" s="0" t="n">
+      <c r="AE19" s="0" t="n">
         <v>-0.3215</v>
       </c>
-      <c r="AE19" s="0" t="n">
+      <c r="AF19" s="0" t="n">
         <v>-0.3137</v>
       </c>
-      <c r="AF19" s="0" t="n">
+      <c r="AG19" s="0" t="n">
         <v>-0.2281</v>
       </c>
-      <c r="AG19" s="0" t="n">
+      <c r="AH19" s="0" t="n">
         <v>-0.2543</v>
       </c>
-      <c r="AH19" s="0" t="n">
+      <c r="AI19" s="0" t="n">
         <v>-0.2284</v>
       </c>
-      <c r="AI19" s="0" t="n">
+      <c r="AJ19" s="0" t="n">
         <v>-0.1848</v>
       </c>
-      <c r="AJ19" s="0" t="n">
+      <c r="AK19" s="0" t="n">
         <v>-0.2173</v>
       </c>
-      <c r="AK19" s="0" t="n">
+      <c r="AL19" s="0" t="n">
         <v>-0.1637</v>
       </c>
-      <c r="AL19" s="0" t="n">
+      <c r="AM19" s="0" t="n">
         <v>-0.122</v>
       </c>
-      <c r="AM19" s="0" t="n">
+      <c r="AN19" s="0" t="n">
         <v>-0.0903</v>
       </c>
-      <c r="AN19" s="0" t="n">
+      <c r="AO19" s="0" t="n">
         <v>0.4666</v>
       </c>
     </row>
@@ -2552,120 +2614,123 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
+        <v>0.0504</v>
+      </c>
+      <c r="C20" s="0" t="n">
         <v>0.0081</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="D20" s="0" t="n">
         <v>0.0406</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="E20" s="0" t="n">
         <v>0.032</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="F20" s="0" t="n">
         <v>0.0017</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="G20" s="0" t="n">
         <v>-0.0531</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="H20" s="0" t="n">
         <v>-0.037</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="I20" s="0" t="n">
         <v>-0.0729</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="J20" s="0" t="n">
         <v>-0.0573</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="K20" s="0" t="n">
         <v>0.0339</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="L20" s="0" t="n">
         <v>0.0176</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="M20" s="0" t="n">
         <v>0.0172</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="N20" s="0" t="n">
         <v>-0.0948</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="O20" s="0" t="n">
         <v>0.0173</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="P20" s="0" t="n">
         <v>-0.1801</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="Q20" s="0" t="n">
         <v>-0.2221</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="R20" s="0" t="n">
         <v>-0.2611</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="S20" s="0" t="n">
         <v>-0.3369</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="T20" s="0" t="n">
         <v>-0.469</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="U20" s="0" t="n">
         <v>-0.5187</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="V20" s="0" t="n">
         <v>-0.522</v>
       </c>
-      <c r="V20" s="0" t="n">
+      <c r="W20" s="0" t="n">
         <v>-0.4747</v>
       </c>
-      <c r="W20" s="0" t="n">
+      <c r="X20" s="0" t="n">
         <v>-0.3833</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="Y20" s="0" t="n">
         <v>-0.3673</v>
       </c>
-      <c r="Y20" s="0" t="n">
+      <c r="Z20" s="0" t="n">
         <v>-0.3985</v>
       </c>
-      <c r="Z20" s="0" t="n">
+      <c r="AA20" s="0" t="n">
         <v>-0.2502</v>
       </c>
-      <c r="AA20" s="0" t="n">
+      <c r="AB20" s="0" t="n">
         <v>-0.4365</v>
       </c>
-      <c r="AB20" s="0" t="n">
+      <c r="AC20" s="0" t="n">
         <v>-0.4466</v>
       </c>
-      <c r="AC20" s="0" t="n">
+      <c r="AD20" s="0" t="n">
         <v>-0.4287</v>
       </c>
-      <c r="AD20" s="0" t="n">
+      <c r="AE20" s="0" t="n">
         <v>-0.4358</v>
       </c>
-      <c r="AE20" s="0" t="n">
+      <c r="AF20" s="0" t="n">
         <v>-0.1606</v>
       </c>
-      <c r="AF20" s="0" t="n">
+      <c r="AG20" s="0" t="n">
         <v>-0.1216</v>
       </c>
-      <c r="AG20" s="0" t="n">
+      <c r="AH20" s="0" t="n">
         <v>-0.1122</v>
       </c>
-      <c r="AH20" s="0" t="n">
+      <c r="AI20" s="0" t="n">
         <v>-0.0538</v>
       </c>
-      <c r="AI20" s="0" t="n">
+      <c r="AJ20" s="0" t="n">
         <v>-0.0719</v>
       </c>
-      <c r="AJ20" s="0" t="n">
+      <c r="AK20" s="0" t="n">
         <v>-0.1753</v>
       </c>
-      <c r="AK20" s="0" t="n">
+      <c r="AL20" s="0" t="n">
         <v>-0.1302</v>
       </c>
-      <c r="AL20" s="0" t="n">
+      <c r="AM20" s="0" t="n">
         <v>-0.1242</v>
       </c>
-      <c r="AM20" s="0" t="n">
+      <c r="AN20" s="0" t="n">
         <v>-0.1658</v>
       </c>
-      <c r="AN20" s="0" t="n">
+      <c r="AO20" s="0" t="n">
         <v>-0.0594</v>
       </c>
     </row>
@@ -2676,120 +2741,123 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
+        <v>-8314000.0</v>
+      </c>
+      <c r="C21" s="0" t="n">
         <v>922000.0</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="D21" s="0" t="n">
         <v>8055000.0</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="E21" s="0" t="n">
         <v>75669000.0</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="F21" s="0" t="n">
         <v>84187000.0</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="G21" s="0" t="n">
         <v>-11206100.0</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="H21" s="0" t="n">
         <v>-27525100.0</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="I21" s="0" t="n">
         <v>-50473100.0</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="J21" s="0" t="n">
         <v>-39932100.0</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="K21" s="0" t="n">
         <v>-27495000.0</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="L21" s="0" t="n">
         <v>73974100.0</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="M21" s="0" t="n">
         <v>70368100.0</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="N21" s="0" t="n">
         <v>56396100.0</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="O21" s="0" t="n">
         <v>76238100.0</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="P21" s="0" t="n">
         <v>-80282900.0</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="Q21" s="0" t="n">
         <v>-118608900.0</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="R21" s="0" t="n">
         <v>-643471000.0</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="S21" s="0" t="n">
         <v>-705217000.0</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="T21" s="0" t="n">
         <v>-521556100.0</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="U21" s="0" t="n">
         <v>-560198100.0</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="V21" s="0" t="n">
         <v>-68594000.0</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="W21" s="0" t="n">
         <v>-61338000.0</v>
       </c>
-      <c r="W21" s="0" t="n">
+      <c r="X21" s="0" t="n">
         <v>-227431000.0</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="Y21" s="0" t="n">
         <v>-130836000.0</v>
       </c>
-      <c r="Y21" s="0" t="n">
+      <c r="Z21" s="0" t="n">
         <v>-81883000.0</v>
       </c>
-      <c r="Z21" s="0" t="n">
+      <c r="AA21" s="0" t="n">
         <v>-39809000.0</v>
       </c>
-      <c r="AA21" s="0" t="n">
+      <c r="AB21" s="0" t="n">
         <v>-40556000.0</v>
       </c>
-      <c r="AB21" s="0" t="n">
+      <c r="AC21" s="0" t="n">
         <v>-104083000.0</v>
       </c>
-      <c r="AC21" s="0" t="n">
+      <c r="AD21" s="0" t="n">
         <v>-106529000.0</v>
       </c>
-      <c r="AD21" s="0" t="n">
+      <c r="AE21" s="0" t="n">
         <v>-114094000.0</v>
       </c>
-      <c r="AE21" s="0" t="n">
+      <c r="AF21" s="0" t="n">
         <v>-96633000.0</v>
       </c>
-      <c r="AF21" s="0" t="n">
+      <c r="AG21" s="0" t="n">
         <v>-58028000.0</v>
       </c>
-      <c r="AG21" s="0" t="n">
+      <c r="AH21" s="0" t="n">
         <v>-71112000.0</v>
       </c>
-      <c r="AH21" s="0" t="n">
+      <c r="AI21" s="0" t="n">
         <v>-61411000.0</v>
       </c>
-      <c r="AI21" s="0" t="n">
+      <c r="AJ21" s="0" t="n">
         <v>-38672000.0</v>
       </c>
-      <c r="AJ21" s="0" t="n">
+      <c r="AK21" s="0" t="n">
         <v>-46350000.0</v>
       </c>
-      <c r="AK21" s="0" t="n">
+      <c r="AL21" s="0" t="n">
         <v>-17183000.0</v>
       </c>
-      <c r="AL21" s="0" t="n">
+      <c r="AM21" s="0" t="n">
         <v>5192000.0</v>
       </c>
-      <c r="AM21" s="0" t="n">
+      <c r="AN21" s="0" t="n">
         <v>22594000.0</v>
       </c>
-      <c r="AN21" s="0" t="n">
+      <c r="AO21" s="0" t="n">
         <v>34644000.0</v>
       </c>
     </row>
@@ -2800,120 +2868,123 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
+        <v>-116640100.0</v>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>-36765100.0</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="D22" s="0" t="n">
         <v>-1087100.0</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="E22" s="0" t="n">
         <v>58863900.0</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="F22" s="0" t="n">
         <v>58454900.0</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="G22" s="0" t="n">
         <v>-100457200.0</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="H22" s="0" t="n">
         <v>-129443100.0</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="I22" s="0" t="n">
         <v>-149194100.0</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="J22" s="0" t="n">
         <v>-133103100.0</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="K22" s="0" t="n">
         <v>-123524000.0</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="L22" s="0" t="n">
         <v>-27328900.0</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="M22" s="0" t="n">
         <v>-25314900.0</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="N22" s="0" t="n">
         <v>-38863900.0</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="O22" s="0" t="n">
         <v>-14699900.0</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="P22" s="0" t="n">
         <v>-162367900.0</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="Q22" s="0" t="n">
         <v>-208725900.0</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="R22" s="0" t="n">
         <v>-742719900.0</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="S22" s="0" t="n">
         <v>-803428900.0</v>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="T22" s="0" t="n">
         <v>-612489000.0</v>
       </c>
-      <c r="T22" s="0" t="n">
+      <c r="U22" s="0" t="n">
         <v>-634277000.0</v>
       </c>
-      <c r="U22" s="0" t="n">
+      <c r="V22" s="0" t="n">
         <v>-125759000.0</v>
       </c>
-      <c r="V22" s="0" t="n">
+      <c r="W22" s="0" t="n">
         <v>-110702000.0</v>
       </c>
-      <c r="W22" s="0" t="n">
+      <c r="X22" s="0" t="n">
         <v>-270777000.0</v>
       </c>
-      <c r="X22" s="0" t="n">
+      <c r="Y22" s="0" t="n">
         <v>-177701000.0</v>
       </c>
-      <c r="Y22" s="0" t="n">
+      <c r="Z22" s="0" t="n">
         <v>-132295000.0</v>
       </c>
-      <c r="Z22" s="0" t="n">
+      <c r="AA22" s="0" t="n">
         <v>-92891000.0</v>
       </c>
-      <c r="AA22" s="0" t="n">
+      <c r="AB22" s="0" t="n">
         <v>-86445000.0</v>
       </c>
-      <c r="AB22" s="0" t="n">
+      <c r="AC22" s="0" t="n">
         <v>-148372000.0</v>
       </c>
-      <c r="AC22" s="0" t="n">
+      <c r="AD22" s="0" t="n">
         <v>-149542000.0</v>
       </c>
-      <c r="AD22" s="0" t="n">
+      <c r="AE22" s="0" t="n">
         <v>-156007000.0</v>
       </c>
-      <c r="AE22" s="0" t="n">
+      <c r="AF22" s="0" t="n">
         <v>-150601000.0</v>
       </c>
-      <c r="AF22" s="0" t="n">
+      <c r="AG22" s="0" t="n">
         <v>-110368000.0</v>
       </c>
-      <c r="AG22" s="0" t="n">
+      <c r="AH22" s="0" t="n">
         <v>-121270000.0</v>
       </c>
-      <c r="AH22" s="0" t="n">
+      <c r="AI22" s="0" t="n">
         <v>-110215000.0</v>
       </c>
-      <c r="AI22" s="0" t="n">
+      <c r="AJ22" s="0" t="n">
         <v>-84746000.0</v>
       </c>
-      <c r="AJ22" s="0" t="n">
+      <c r="AK22" s="0" t="n">
         <v>-89772000.0</v>
       </c>
-      <c r="AK22" s="0" t="n">
+      <c r="AL22" s="0" t="n">
         <v>-58050000.0</v>
       </c>
-      <c r="AL22" s="0" t="n">
+      <c r="AM22" s="0" t="n">
         <v>-33890000.0</v>
       </c>
-      <c r="AM22" s="0" t="n">
+      <c r="AN22" s="0" t="n">
         <v>-15805000.0</v>
       </c>
-      <c r="AN22" s="0" t="n">
+      <c r="AO22" s="0" t="n">
         <v>-2227000.0</v>
       </c>
     </row>
@@ -2924,120 +2995,123 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
+        <v>4.1414</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>4.482</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="D23" s="0" t="n">
         <v>4.3401</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="E23" s="0" t="n">
         <v>0.6659</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="F23" s="0" t="n">
         <v>0.6183</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="G23" s="0" t="n">
         <v>-0.1333</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="H23" s="0" t="n">
         <v>-0.2488</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="I23" s="0" t="n">
         <v>-0.6159</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="J23" s="0" t="n">
         <v>-0.5017</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="K23" s="0" t="n">
         <v>-0.4355</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="L23" s="0" t="n">
         <v>-0.7105</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="M23" s="0" t="n">
         <v>-0.7109</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="N23" s="0" t="n">
         <v>-0.8272</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="O23" s="0" t="n">
         <v>-0.6709</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="P23" s="0" t="n">
         <v>-0.854</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="Q23" s="0" t="n">
         <v>-1.0056</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="R23" s="0" t="n">
         <v>-3.3716</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="S23" s="0" t="n">
         <v>-3.7914</v>
       </c>
-      <c r="S23" s="0" t="n">
+      <c r="T23" s="0" t="n">
         <v>-2.8843</v>
       </c>
-      <c r="T23" s="0" t="n">
+      <c r="U23" s="0" t="n">
         <v>-3.2255</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="V23" s="0" t="n">
         <v>-1.1594</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="W23" s="0" t="n">
         <v>-1.0736</v>
       </c>
-      <c r="W23" s="0" t="n">
+      <c r="X23" s="0" t="n">
         <v>-1.9725</v>
       </c>
-      <c r="X23" s="0" t="n">
+      <c r="Y23" s="0" t="n">
         <v>-1.3615</v>
       </c>
-      <c r="Y23" s="0" t="n">
+      <c r="Z23" s="0" t="n">
         <v>-1.0793</v>
       </c>
-      <c r="Z23" s="0" t="n">
+      <c r="AA23" s="0" t="n">
         <v>-0.9154</v>
       </c>
-      <c r="AA23" s="0" t="n">
+      <c r="AB23" s="0" t="n">
         <v>-0.8849</v>
       </c>
-      <c r="AB23" s="0" t="n">
+      <c r="AC23" s="0" t="n">
         <v>-1.3082</v>
       </c>
-      <c r="AC23" s="0" t="n">
+      <c r="AD23" s="0" t="n">
         <v>-1.2336</v>
       </c>
-      <c r="AD23" s="0" t="n">
+      <c r="AE23" s="0" t="n">
         <v>-1.2803</v>
       </c>
-      <c r="AE23" s="0" t="n">
+      <c r="AF23" s="0" t="n">
         <v>-1.2696</v>
       </c>
-      <c r="AF23" s="0" t="n">
+      <c r="AG23" s="0" t="n">
         <v>-0.9364</v>
       </c>
-      <c r="AG23" s="0" t="n">
+      <c r="AH23" s="0" t="n">
         <v>-1.0535</v>
       </c>
-      <c r="AH23" s="0" t="n">
+      <c r="AI23" s="0" t="n">
         <v>-0.9507</v>
       </c>
-      <c r="AI23" s="0" t="n">
+      <c r="AJ23" s="0" t="n">
         <v>-0.7609</v>
       </c>
-      <c r="AJ23" s="0" t="n">
+      <c r="AK23" s="0" t="n">
         <v>-0.8747</v>
       </c>
-      <c r="AK23" s="0" t="n">
+      <c r="AL23" s="0" t="n">
         <v>-0.649</v>
       </c>
-      <c r="AL23" s="0" t="n">
+      <c r="AM23" s="0" t="n">
         <v>-0.4802</v>
       </c>
-      <c r="AM23" s="0" t="n">
+      <c r="AN23" s="0" t="n">
         <v>-0.2666</v>
       </c>
-      <c r="AN23" s="0" t="n">
+      <c r="AO23" s="0" t="n">
         <v>1.5461</v>
       </c>
     </row>
@@ -3048,120 +3122,123 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
+        <v>4.3947</v>
+      </c>
+      <c r="C24" s="0" t="n">
         <v>4.7515</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="D24" s="0" t="n">
         <v>4.7091</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="E24" s="0" t="n">
         <v>0.6836</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="F24" s="0" t="n">
         <v>0.636</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="G24" s="0" t="n">
         <v>-0.1332</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="H24" s="0" t="n">
         <v>-0.238</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="I24" s="0" t="n">
         <v>-0.6161</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="J24" s="0" t="n">
         <v>-0.5019</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="K24" s="0" t="n">
         <v>-0.436</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="L24" s="0" t="n">
         <v>-0.7108</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="M24" s="0" t="n">
         <v>-0.7112</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="N24" s="0" t="n">
         <v>-0.8275</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="O24" s="0" t="n">
         <v>-0.6709</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="P24" s="0" t="n">
         <v>-0.8594</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="Q24" s="0" t="n">
         <v>-1.011</v>
       </c>
-      <c r="Q24" s="0" t="n">
+      <c r="R24" s="0" t="n">
         <v>-3.377</v>
       </c>
-      <c r="R24" s="0" t="n">
+      <c r="S24" s="0" t="n">
         <v>-3.7968</v>
       </c>
-      <c r="S24" s="0" t="n">
+      <c r="T24" s="0" t="n">
         <v>-2.8834</v>
       </c>
-      <c r="T24" s="0" t="n">
+      <c r="U24" s="0" t="n">
         <v>-3.2255</v>
       </c>
-      <c r="U24" s="0" t="n">
+      <c r="V24" s="0" t="n">
         <v>-1.1594</v>
       </c>
-      <c r="V24" s="0" t="n">
+      <c r="W24" s="0" t="n">
         <v>-1.0736</v>
       </c>
-      <c r="W24" s="0" t="n">
+      <c r="X24" s="0" t="n">
         <v>-1.9767</v>
       </c>
-      <c r="X24" s="0" t="n">
+      <c r="Y24" s="0" t="n">
         <v>-1.3609</v>
       </c>
-      <c r="Y24" s="0" t="n">
+      <c r="Z24" s="0" t="n">
         <v>-1.0791</v>
       </c>
-      <c r="Z24" s="0" t="n">
+      <c r="AA24" s="0" t="n">
         <v>-0.9155</v>
       </c>
-      <c r="AA24" s="0" t="n">
+      <c r="AB24" s="0" t="n">
         <v>-0.8815</v>
       </c>
-      <c r="AB24" s="0" t="n">
+      <c r="AC24" s="0" t="n">
         <v>-1.3087</v>
       </c>
-      <c r="AC24" s="0" t="n">
+      <c r="AD24" s="0" t="n">
         <v>-1.2339</v>
       </c>
-      <c r="AD24" s="0" t="n">
+      <c r="AE24" s="0" t="n">
         <v>-1.2803</v>
       </c>
-      <c r="AE24" s="0" t="n">
+      <c r="AF24" s="0" t="n">
         <v>-1.2698</v>
       </c>
-      <c r="AF24" s="0" t="n">
+      <c r="AG24" s="0" t="n">
         <v>-0.9366</v>
       </c>
-      <c r="AG24" s="0" t="n">
+      <c r="AH24" s="0" t="n">
         <v>-1.0535</v>
       </c>
-      <c r="AH24" s="0" t="n">
+      <c r="AI24" s="0" t="n">
         <v>-0.9507</v>
       </c>
-      <c r="AI24" s="0" t="n">
+      <c r="AJ24" s="0" t="n">
         <v>-0.7609</v>
       </c>
-      <c r="AJ24" s="0" t="n">
+      <c r="AK24" s="0" t="n">
         <v>-0.8747</v>
       </c>
-      <c r="AK24" s="0" t="n">
+      <c r="AL24" s="0" t="n">
         <v>-0.649</v>
       </c>
-      <c r="AL24" s="0" t="n">
+      <c r="AM24" s="0" t="n">
         <v>-0.4802</v>
       </c>
-      <c r="AM24" s="0" t="n">
+      <c r="AN24" s="0" t="n">
         <v>-0.3811</v>
       </c>
-      <c r="AN24" s="0" t="n">
+      <c r="AO24" s="0" t="n">
         <v>1.9045</v>
       </c>
     </row>
@@ -3172,120 +3249,123 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
+        <v>4.3947</v>
+      </c>
+      <c r="C25" s="0" t="n">
         <v>4.7515</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="D25" s="0" t="n">
         <v>4.7091</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="E25" s="0" t="n">
         <v>0.6836</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>0.636</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="G25" s="0" t="n">
         <v>-0.1332</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="H25" s="0" t="n">
         <v>-0.238</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="I25" s="0" t="n">
         <v>-0.6161</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="J25" s="0" t="n">
         <v>-0.5019</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="K25" s="0" t="n">
         <v>-0.436</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="L25" s="0" t="n">
         <v>-0.7108</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="M25" s="0" t="n">
         <v>-0.7112</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="N25" s="0" t="n">
         <v>-0.8275</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="O25" s="0" t="n">
         <v>-0.6709</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="P25" s="0" t="n">
         <v>-0.8594</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="Q25" s="0" t="n">
         <v>-1.011</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="R25" s="0" t="n">
         <v>-3.377</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="S25" s="0" t="n">
         <v>-3.7968</v>
       </c>
-      <c r="S25" s="0" t="n">
+      <c r="T25" s="0" t="n">
         <v>-2.8834</v>
       </c>
-      <c r="T25" s="0" t="n">
+      <c r="U25" s="0" t="n">
         <v>-3.2255</v>
       </c>
-      <c r="U25" s="0" t="n">
+      <c r="V25" s="0" t="n">
         <v>-1.1594</v>
       </c>
-      <c r="V25" s="0" t="n">
+      <c r="W25" s="0" t="n">
         <v>-1.0736</v>
       </c>
-      <c r="W25" s="0" t="n">
+      <c r="X25" s="0" t="n">
         <v>-1.9767</v>
       </c>
-      <c r="X25" s="0" t="n">
+      <c r="Y25" s="0" t="n">
         <v>-1.3609</v>
       </c>
-      <c r="Y25" s="0" t="n">
+      <c r="Z25" s="0" t="n">
         <v>-1.0791</v>
       </c>
-      <c r="Z25" s="0" t="n">
+      <c r="AA25" s="0" t="n">
         <v>-0.9155</v>
       </c>
-      <c r="AA25" s="0" t="n">
+      <c r="AB25" s="0" t="n">
         <v>-0.8815</v>
       </c>
-      <c r="AB25" s="0" t="n">
+      <c r="AC25" s="0" t="n">
         <v>-1.3087</v>
       </c>
-      <c r="AC25" s="0" t="n">
+      <c r="AD25" s="0" t="n">
         <v>-1.2339</v>
       </c>
-      <c r="AD25" s="0" t="n">
+      <c r="AE25" s="0" t="n">
         <v>-1.2803</v>
       </c>
-      <c r="AE25" s="0" t="n">
+      <c r="AF25" s="0" t="n">
         <v>-1.2698</v>
       </c>
-      <c r="AF25" s="0" t="n">
+      <c r="AG25" s="0" t="n">
         <v>-0.9366</v>
       </c>
-      <c r="AG25" s="0" t="n">
+      <c r="AH25" s="0" t="n">
         <v>-1.0535</v>
       </c>
-      <c r="AH25" s="0" t="n">
+      <c r="AI25" s="0" t="n">
         <v>-0.9507</v>
       </c>
-      <c r="AI25" s="0" t="n">
+      <c r="AJ25" s="0" t="n">
         <v>-0.7609</v>
       </c>
-      <c r="AJ25" s="0" t="n">
+      <c r="AK25" s="0" t="n">
         <v>-0.8747</v>
       </c>
-      <c r="AK25" s="0" t="n">
+      <c r="AL25" s="0" t="n">
         <v>-0.649</v>
       </c>
-      <c r="AL25" s="0" t="n">
+      <c r="AM25" s="0" t="n">
         <v>-0.4802</v>
       </c>
-      <c r="AM25" s="0" t="n">
+      <c r="AN25" s="0" t="n">
         <v>-0.3811</v>
       </c>
-      <c r="AN25" s="0" t="n">
+      <c r="AO25" s="0" t="n">
         <v>1.9045</v>
       </c>
     </row>
@@ -3296,120 +3376,123 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
+        <v>795090000.0</v>
+      </c>
+      <c r="C26" s="0" t="n">
         <v>859100000.0</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="D26" s="0" t="n">
         <v>852025000.0</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="E26" s="0" t="n">
         <v>122258000.0</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="F26" s="0" t="n">
         <v>114006000.0</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="G26" s="0" t="n">
         <v>-23848000.0</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="H26" s="0" t="n">
         <v>-42522000.0</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="I26" s="0" t="n">
         <v>-110178000.0</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="J26" s="0" t="n">
         <v>-89535000.0</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="K26" s="0" t="n">
         <v>-77211000.0</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="L26" s="0" t="n">
         <v>-124953000.0</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="M26" s="0" t="n">
         <v>-124860000.0</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="N26" s="0" t="n">
         <v>-144901000.0</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="O26" s="0" t="n">
         <v>-117042000.0</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="P26" s="0" t="n">
         <v>-156370000.0</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="Q26" s="0" t="n">
         <v>-181268000.0</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="R26" s="0" t="n">
         <v>-563449000.0</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="S26" s="0" t="n">
         <v>-630210000.0</v>
       </c>
-      <c r="S26" s="0" t="n">
+      <c r="T26" s="0" t="n">
         <v>-470873000.0</v>
       </c>
-      <c r="T26" s="0" t="n">
+      <c r="U26" s="0" t="n">
         <v>-524374000.0</v>
       </c>
-      <c r="U26" s="0" t="n">
+      <c r="V26" s="0" t="n">
         <v>-187349000.0</v>
       </c>
-      <c r="V26" s="0" t="n">
+      <c r="W26" s="0" t="n">
         <v>-171799000.0</v>
       </c>
-      <c r="W26" s="0" t="n">
+      <c r="X26" s="0" t="n">
         <v>-310213000.0</v>
       </c>
-      <c r="X26" s="0" t="n">
+      <c r="Y26" s="0" t="n">
         <v>-211842000.0</v>
       </c>
-      <c r="Y26" s="0" t="n">
+      <c r="Z26" s="0" t="n">
         <v>-163355000.0</v>
       </c>
-      <c r="Z26" s="0" t="n">
+      <c r="AA26" s="0" t="n">
         <v>-133969000.0</v>
       </c>
-      <c r="AA26" s="0" t="n">
+      <c r="AB26" s="0" t="n">
         <v>-126162000.0</v>
       </c>
-      <c r="AB26" s="0" t="n">
+      <c r="AC26" s="0" t="n">
         <v>-186627000.0</v>
       </c>
-      <c r="AC26" s="0" t="n">
+      <c r="AD26" s="0" t="n">
         <v>-174658000.0</v>
       </c>
-      <c r="AD26" s="0" t="n">
+      <c r="AE26" s="0" t="n">
         <v>-176353000.0</v>
       </c>
-      <c r="AE26" s="0" t="n">
+      <c r="AF26" s="0" t="n">
         <v>-167375000.0</v>
       </c>
-      <c r="AF26" s="0" t="n">
+      <c r="AG26" s="0" t="n">
         <v>-119712000.0</v>
       </c>
-      <c r="AG26" s="0" t="n">
+      <c r="AH26" s="0" t="n">
         <v>-130185000.0</v>
       </c>
-      <c r="AH26" s="0" t="n">
+      <c r="AI26" s="0" t="n">
         <v>-114347000.0</v>
       </c>
-      <c r="AI26" s="0" t="n">
+      <c r="AJ26" s="0" t="n">
         <v>-88070000.0</v>
       </c>
-      <c r="AJ26" s="0" t="n">
+      <c r="AK26" s="0" t="n">
         <v>-100366000.0</v>
       </c>
-      <c r="AK26" s="0" t="n">
+      <c r="AL26" s="0" t="n">
         <v>-73437000.0</v>
       </c>
-      <c r="AL26" s="0" t="n">
+      <c r="AM26" s="0" t="n">
         <v>-53836000.0</v>
       </c>
-      <c r="AM26" s="0" t="n">
+      <c r="AN26" s="0" t="n">
         <v>-39290000.0</v>
       </c>
-      <c r="AN26" s="0" t="n">
+      <c r="AO26" s="0" t="n">
         <v>195697000.0</v>
       </c>
     </row>
@@ -3420,120 +3503,123 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
+        <v>795090000.0</v>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>859100000.0</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="D27" s="0" t="n">
         <v>852025000.0</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="E27" s="0" t="n">
         <v>122258000.0</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="F27" s="0" t="n">
         <v>114006000.0</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="G27" s="0" t="n">
         <v>-23848000.0</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="H27" s="0" t="n">
         <v>-42522000.0</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="I27" s="0" t="n">
         <v>-110178000.0</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="J27" s="0" t="n">
         <v>-89535000.0</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="K27" s="0" t="n">
         <v>-77211000.0</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="L27" s="0" t="n">
         <v>-124953000.0</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="M27" s="0" t="n">
         <v>-124860000.0</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="N27" s="0" t="n">
         <v>-144901000.0</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="O27" s="0" t="n">
         <v>-117042000.0</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="P27" s="0" t="n">
         <v>-156370000.0</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="Q27" s="0" t="n">
         <v>-181268000.0</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="R27" s="0" t="n">
         <v>-563449000.0</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="S27" s="0" t="n">
         <v>-630210000.0</v>
       </c>
-      <c r="S27" s="0" t="n">
+      <c r="T27" s="0" t="n">
         <v>-470873000.0</v>
       </c>
-      <c r="T27" s="0" t="n">
+      <c r="U27" s="0" t="n">
         <v>-524374000.0</v>
       </c>
-      <c r="U27" s="0" t="n">
+      <c r="V27" s="0" t="n">
         <v>-187349000.0</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="W27" s="0" t="n">
         <v>-171799000.0</v>
       </c>
-      <c r="W27" s="0" t="n">
+      <c r="X27" s="0" t="n">
         <v>-310213000.0</v>
       </c>
-      <c r="X27" s="0" t="n">
+      <c r="Y27" s="0" t="n">
         <v>-211842000.0</v>
       </c>
-      <c r="Y27" s="0" t="n">
+      <c r="Z27" s="0" t="n">
         <v>-163355000.0</v>
       </c>
-      <c r="Z27" s="0" t="n">
+      <c r="AA27" s="0" t="n">
         <v>-133969000.0</v>
       </c>
-      <c r="AA27" s="0" t="n">
+      <c r="AB27" s="0" t="n">
         <v>-126162000.0</v>
       </c>
-      <c r="AB27" s="0" t="n">
+      <c r="AC27" s="0" t="n">
         <v>-186627000.0</v>
       </c>
-      <c r="AC27" s="0" t="n">
+      <c r="AD27" s="0" t="n">
         <v>-174658000.0</v>
       </c>
-      <c r="AD27" s="0" t="n">
+      <c r="AE27" s="0" t="n">
         <v>-176353000.0</v>
       </c>
-      <c r="AE27" s="0" t="n">
+      <c r="AF27" s="0" t="n">
         <v>-167375000.0</v>
       </c>
-      <c r="AF27" s="0" t="n">
+      <c r="AG27" s="0" t="n">
         <v>-119712000.0</v>
       </c>
-      <c r="AG27" s="0" t="n">
+      <c r="AH27" s="0" t="n">
         <v>-130185000.0</v>
       </c>
-      <c r="AH27" s="0" t="n">
+      <c r="AI27" s="0" t="n">
         <v>-114347000.0</v>
       </c>
-      <c r="AI27" s="0" t="n">
+      <c r="AJ27" s="0" t="n">
         <v>-88070000.0</v>
       </c>
-      <c r="AJ27" s="0" t="n">
+      <c r="AK27" s="0" t="n">
         <v>-100366000.0</v>
       </c>
-      <c r="AK27" s="0" t="n">
+      <c r="AL27" s="0" t="n">
         <v>-73437000.0</v>
       </c>
-      <c r="AL27" s="0" t="n">
+      <c r="AM27" s="0" t="n">
         <v>-53836000.0</v>
       </c>
-      <c r="AM27" s="0" t="n">
+      <c r="AN27" s="0" t="n">
         <v>-39290000.0</v>
       </c>
-      <c r="AN27" s="0" t="n">
+      <c r="AO27" s="0" t="n">
         <v>195697000.0</v>
       </c>
     </row>
@@ -3544,120 +3630,123 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
+        <v>-0.0045</v>
+      </c>
+      <c r="C28" s="0" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="D28" s="0" t="n">
         <v>0.0044</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="E28" s="0" t="n">
         <v>0.0414</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="F28" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="G28" s="0" t="n">
         <v>-0.0066</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="H28" s="0" t="n">
         <v>-0.0172</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="I28" s="0" t="n">
         <v>-0.0329</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="J28" s="0" t="n">
         <v>-0.0263</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="K28" s="0" t="n">
         <v>-0.0184</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="L28" s="0" t="n">
         <v>0.0494</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="M28" s="0" t="n">
         <v>0.0489</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="N28" s="0" t="n">
         <v>0.0408</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="O28" s="0" t="n">
         <v>0.058</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="P28" s="0" t="n">
         <v>-0.0639</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="Q28" s="0" t="n">
         <v>-0.0987</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="R28" s="0" t="n">
         <v>-0.5435</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="S28" s="0" t="n">
         <v>-0.6314</v>
       </c>
-      <c r="S28" s="0" t="n">
+      <c r="T28" s="0" t="n">
         <v>-0.4992</v>
       </c>
-      <c r="T28" s="0" t="n">
+      <c r="U28" s="0" t="n">
         <v>-0.5753</v>
       </c>
-      <c r="U28" s="0" t="n">
+      <c r="V28" s="0" t="n">
         <v>-0.0743</v>
       </c>
-      <c r="V28" s="0" t="n">
+      <c r="W28" s="0" t="n">
         <v>-0.0689</v>
       </c>
-      <c r="W28" s="0" t="n">
+      <c r="X28" s="0" t="n">
         <v>-0.2552</v>
       </c>
-      <c r="X28" s="0" t="n">
+      <c r="Y28" s="0" t="n">
         <v>-0.1523</v>
       </c>
-      <c r="Y28" s="0" t="n">
+      <c r="Z28" s="0" t="n">
         <v>-0.1023</v>
       </c>
-      <c r="Z28" s="0" t="n">
+      <c r="AA28" s="0" t="n">
         <v>-0.0531</v>
       </c>
-      <c r="AA28" s="0" t="n">
+      <c r="AB28" s="0" t="n">
         <v>-0.0608</v>
       </c>
-      <c r="AB28" s="0" t="n">
+      <c r="AC28" s="0" t="n">
         <v>-0.166</v>
       </c>
-      <c r="AC28" s="0" t="n">
+      <c r="AD28" s="0" t="n">
         <v>-0.1862</v>
       </c>
-      <c r="AD28" s="0" t="n">
+      <c r="AE28" s="0" t="n">
         <v>-0.208</v>
       </c>
-      <c r="AE28" s="0" t="n">
+      <c r="AF28" s="0" t="n">
         <v>-0.1811</v>
       </c>
-      <c r="AF28" s="0" t="n">
+      <c r="AG28" s="0" t="n">
         <v>-0.1106</v>
       </c>
-      <c r="AG28" s="0" t="n">
+      <c r="AH28" s="0" t="n">
         <v>-0.1389</v>
       </c>
-      <c r="AH28" s="0" t="n">
+      <c r="AI28" s="0" t="n">
         <v>-0.1226</v>
       </c>
-      <c r="AI28" s="0" t="n">
+      <c r="AJ28" s="0" t="n">
         <v>-0.0811</v>
       </c>
-      <c r="AJ28" s="0" t="n">
+      <c r="AK28" s="0" t="n">
         <v>-0.1003</v>
       </c>
-      <c r="AK28" s="0" t="n">
+      <c r="AL28" s="0" t="n">
         <v>-0.0383</v>
       </c>
-      <c r="AL28" s="0" t="n">
+      <c r="AM28" s="0" t="n">
         <v>0.0118</v>
       </c>
-      <c r="AM28" s="0" t="n">
+      <c r="AN28" s="0" t="n">
         <v>0.0519</v>
       </c>
-      <c r="AN28" s="0" t="n">
+      <c r="AO28" s="0" t="n">
         <v>0.0826</v>
       </c>
     </row>
@@ -3668,120 +3757,123 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
+        <v>0.1168</v>
+      </c>
+      <c r="C29" s="0" t="n">
         <v>0.0463</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="D29" s="0" t="n">
         <v>0.0849</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="E29" s="0" t="n">
         <v>0.0767</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="F29" s="0" t="n">
         <v>0.0491</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="G29" s="0" t="n">
         <v>0.0284</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="H29" s="0" t="n">
         <v>0.0251</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="I29" s="0" t="n">
         <v>0.0113</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="J29" s="0" t="n">
         <v>0.0052</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="K29" s="0" t="n">
         <v>0.0136</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="L29" s="0" t="n">
         <v>-0.0097</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="M29" s="0" t="n">
         <v>-0.0163</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="N29" s="0" t="n">
         <v>0.0211</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="O29" s="0" t="n">
         <v>-0.0067</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="P29" s="0" t="n">
         <v>-0.0188</v>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="Q29" s="0" t="n">
         <v>-0.0601</v>
       </c>
-      <c r="Q29" s="0" t="n">
+      <c r="R29" s="0" t="n">
         <v>-0.1156</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="S29" s="0" t="n">
         <v>-0.204</v>
       </c>
-      <c r="S29" s="0" t="n">
+      <c r="T29" s="0" t="n">
         <v>-0.2809</v>
       </c>
-      <c r="T29" s="0" t="n">
+      <c r="U29" s="0" t="n">
         <v>-0.2937</v>
       </c>
-      <c r="U29" s="0" t="n">
+      <c r="V29" s="0" t="n">
         <v>-0.274</v>
       </c>
-      <c r="V29" s="0" t="n">
+      <c r="W29" s="0" t="n">
         <v>-0.2467</v>
       </c>
-      <c r="W29" s="0" t="n">
+      <c r="X29" s="0" t="n">
         <v>-0.1992</v>
       </c>
-      <c r="X29" s="0" t="n">
+      <c r="Y29" s="0" t="n">
         <v>-0.2133</v>
       </c>
-      <c r="Y29" s="0" t="n">
+      <c r="Z29" s="0" t="n">
         <v>-0.227</v>
       </c>
-      <c r="Z29" s="0" t="n">
+      <c r="AA29" s="0" t="n">
         <v>-0.094</v>
       </c>
-      <c r="AA29" s="0" t="n">
+      <c r="AB29" s="0" t="n">
         <v>-0.0833</v>
       </c>
-      <c r="AB29" s="0" t="n">
+      <c r="AC29" s="0" t="n">
         <v>-0.09</v>
       </c>
-      <c r="AC29" s="0" t="n">
+      <c r="AD29" s="0" t="n">
         <v>-0.0905</v>
       </c>
-      <c r="AD29" s="0" t="n">
+      <c r="AE29" s="0" t="n">
         <v>-0.1045</v>
       </c>
-      <c r="AE29" s="0" t="n">
+      <c r="AF29" s="0" t="n">
         <v>-0.0681</v>
       </c>
-      <c r="AF29" s="0" t="n">
+      <c r="AG29" s="0" t="n">
         <v>-0.0241</v>
       </c>
-      <c r="AG29" s="0" t="n">
+      <c r="AH29" s="0" t="n">
         <v>-0.0142</v>
       </c>
-      <c r="AH29" s="0" t="n">
+      <c r="AI29" s="0" t="n">
         <v>0.0352</v>
       </c>
-      <c r="AI29" s="0" t="n">
+      <c r="AJ29" s="0" t="n">
         <v>0.0107</v>
       </c>
-      <c r="AJ29" s="0" t="n">
+      <c r="AK29" s="0" t="n">
         <v>-0.0005</v>
       </c>
-      <c r="AK29" s="0" t="n">
+      <c r="AL29" s="0" t="n">
         <v>0.0329</v>
       </c>
-      <c r="AL29" s="0" t="n">
+      <c r="AM29" s="0" t="n">
         <v>0.0417</v>
       </c>
-      <c r="AM29" s="0" t="n">
+      <c r="AN29" s="0" t="n">
         <v>0.0072</v>
       </c>
-      <c r="AN29" s="0" t="n">
+      <c r="AO29" s="0" t="n">
         <v>0.008</v>
       </c>
     </row>
